--- a/resources/Clinician02.xlsx
+++ b/resources/Clinician02.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="17175" windowHeight="8190" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="17175" windowHeight="8190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Neurological" sheetId="1" r:id="rId1"/>
     <sheet name="Cardiac" sheetId="2" r:id="rId2"/>
     <sheet name="Sensory" sheetId="3" r:id="rId3"/>
     <sheet name="Respiratory" sheetId="4" r:id="rId4"/>
+    <sheet name="Gastrointestinal" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="409">
   <si>
     <t>Name</t>
   </si>
@@ -716,6 +717,534 @@
   </si>
   <si>
     <t>//md-checkbox[@ng-model="vm.charts.tracheostomy.tracheostomyCareProtocol"]</t>
+  </si>
+  <si>
+    <t>Sputum</t>
+  </si>
+  <si>
+    <t>Trachestomy</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.charts.chestTube.insertionDate"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>Chest Tube Insertion Date</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.charts.chestTube.lastChangedate"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>Receptcle</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.chestTube.tubeType"]</t>
+  </si>
+  <si>
+    <t>Tube Type</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.chestTube.drainageSystem"]</t>
+  </si>
+  <si>
+    <t>Drainage System</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.chestTube.drainageCharacter"]</t>
+  </si>
+  <si>
+    <t>Dranage Character</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.chestTube.drainageAmount"]</t>
+  </si>
+  <si>
+    <t>Drainage Amount</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.chestTube.drainageDuration"]</t>
+  </si>
+  <si>
+    <t>ML/</t>
+  </si>
+  <si>
+    <t>//md-radio-button[@aria-label="1 - When walking more than 20 feet, climbing stairs"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.m1410.ventilator"]</t>
+  </si>
+  <si>
+    <t>Gastrointestinal</t>
+  </si>
+  <si>
+    <t>//button[contains(@aria-label,'Gastrointestinal')]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.npo"]</t>
+  </si>
+  <si>
+    <t>NPO</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.nauseaVomiting"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.diarrhea"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.refluxIndigestion"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.constipation"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.bowelIncontinence"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.bowelSounds.value"]</t>
+  </si>
+  <si>
+    <t>//md-radio-button[@aria-label="Hyperactive"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.abdGirth.value"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.digestive.abdGirth.detail"]</t>
+  </si>
+  <si>
+    <t>Yeahh Test</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.ostomy"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.digestive.tubeFeeding"]</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>//md-radio-button[@aria-label="Ileostomy"]</t>
+  </si>
+  <si>
+    <t>Ileostomy</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.stomaAppearance.red"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.stomaAppearance.pink"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.stomaAppearance.moist"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.stomaAppearance.dry"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.stomaAppearance.pale"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.stomaAppearance.swollen"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.surroundingSkin.intact"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.surroundingSkin.red"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.surroundingSkin.pale"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.surroundingSkin.swollen"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.surroundingSkin.dry"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.ostomy.surroundingSkin.macerated"]</t>
+  </si>
+  <si>
+    <t>Stool Consistence</t>
+  </si>
+  <si>
+    <t>//md-radio-button[@aria-label="Liquid"]</t>
+  </si>
+  <si>
+    <t>Stool Appearance</t>
+  </si>
+  <si>
+    <t>//md-radio-button[@aria-label="Brownish"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.ostomy.education.understanding.target"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.ostomy.education.demonstration.target"]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.ostomy.education.understanding.detail"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.ostomy.education.furtherTraining.target"]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.ostomy.education.understanding.detail"]/md-radio-button[3]</t>
+  </si>
+  <si>
+    <t>//md-radio-button[@aria-label="G Tube"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tubeFeeding.formula.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tubeFeeding.formula.detail"]</t>
+  </si>
+  <si>
+    <t>test121</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tubeFeeding.bolus.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tubeFeeding.bolus.cc"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tubeFeeding.bolus.duration"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tubeFeeding.continuous.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tubeFeeding.continuous.cc"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tubeFeeding.continuous.type"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tubeFeeding.placementChecked"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tubeFeeding.residualChecked.value"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.tubeFeeding.residualChecked.amount"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.tubeFeeding.tolerateWell"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tubeFeeding.education.aspirationPrecaution.target"]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.tubeFeeding.education.aspirationPrecaution.detail"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tubeFeeding.education.waterFlushing.target"]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.tubeFeeding.education.waterFlushing.detail"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tubeFeeding.education.management.target"]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.tubeFeeding.education.management.detail"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.tubeFeeding.education.sideCare.target"]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.tubeFeeding.education.sideCare.detail"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.tubeFeeding.comments"]</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Tube Feeding Side Care</t>
+  </si>
+  <si>
+    <t>Tube Feeding Management</t>
+  </si>
+  <si>
+    <t>Water Flushing</t>
+  </si>
+  <si>
+    <t>Aspiration Precaution</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.endo.diabetic"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>ENDOCRINE</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.endo.insulin"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.endo.correctDose"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.endo.properlyAdminister"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.endo.oralHypoglycemic"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.endo.independentGlucometer"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.endo.caregiverInsulin"]/md-radio-button[2]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.endo.caregiverGlucometer"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.endo.routinelyInspection"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>Does Patient Have any oF the Following?\</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.endo.polyuria"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.endo.insulinhowLong"]</t>
+  </si>
+  <si>
+    <t>Long Enough</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.endo.polyphagia"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.endo.radiculopathy"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.endo.polydipsia"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.endo.neuropathy"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.endo.thyroidProblems"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.endo.bloodSugar.checkedBy"]</t>
+  </si>
+  <si>
+    <t>Blood Sugar Checked By:</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.endo.bloodSugar.site"]</t>
+  </si>
+  <si>
+    <t>Most Famous</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.endo.comments"]</t>
+  </si>
+  <si>
+    <t>No Comment For Now</t>
+  </si>
+  <si>
+    <t>DIET</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.diet.appropriatelyMeals.value"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.diet.appropriatelyMeals.detail"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.diet.appropriatelyMeals.type"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[3]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[4]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[5]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[6]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[7]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[8]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[9]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[10]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[11]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[12]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[13]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.diet.otherOrder.value"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>Other Discipline Order</t>
+  </si>
+  <si>
+    <t>Diet Type</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.diet.otherOrder.target"]</t>
+  </si>
+  <si>
+    <t>Order Needed</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.diet.otherOrder.detail"]</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.wnl"]</t>
+  </si>
+  <si>
+    <t>NUTRITION</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.dysphagia"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.decreasedAppetite"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.mealsPreparedappropriately"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.weight.value"]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.nutri.weight.detail"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>LBS</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.nutri.weight.amount"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.charts.nutri.weight.time"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.charts.nutri.weight.timeUnit"]</t>
+  </si>
+  <si>
+    <t>//md-radio-group[@ng-model="vm.charts.nutri.nutritionStatus"]/md-radio-button[1]</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Nutrition :</t>
+  </si>
+  <si>
+    <t>Other Issues:</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.throat"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.hoarseness"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.soreThroat"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.dental"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.dentures"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.chewing"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutri.other"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.nutri.detail"]</t>
+  </si>
+  <si>
+    <t>I don’t know yet</t>
+  </si>
+  <si>
+    <t>NUTRITIONAL HEALTH</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s00"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s01"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s02"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s03"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s04"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s05"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s06"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s07"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s08"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s09"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s10"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.score.s11"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.nutritionalHealth.comments"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.nonCompliant"]</t>
+  </si>
+  <si>
+    <t>//md-checkbox[@ng-model="vm.charts.nutritionalHealth.overUnderweight"]</t>
+  </si>
+  <si>
+    <t>//textarea[@ng-model="vm.charts.nutritionalHealth.mealsPrepared"]</t>
+  </si>
+  <si>
+    <t>My mother Who loves to cook</t>
   </si>
 </sst>
 </file>
@@ -3402,10 +3931,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3421,7 +3950,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3449,11 +3978,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30">
+    </row>
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="1" t="s">
         <v>187</v>
       </c>
@@ -3473,7 +3999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="1" t="s">
         <v>198</v>
       </c>
@@ -3484,7 +4010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:9" ht="45">
       <c r="B4" s="1" t="s">
         <v>191</v>
       </c>
@@ -3492,7 +4018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45">
+    <row r="5" spans="1:9" ht="45">
       <c r="B5" s="1" t="s">
         <v>192</v>
       </c>
@@ -3506,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45">
+    <row r="6" spans="1:9" ht="45">
       <c r="B6" s="1" t="s">
         <v>194</v>
       </c>
@@ -3514,7 +4040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45">
+    <row r="7" spans="1:9" ht="45">
       <c r="B7" s="1" t="s">
         <v>195</v>
       </c>
@@ -3528,7 +4054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45">
+    <row r="8" spans="1:9" ht="45">
       <c r="B8" s="1" t="s">
         <v>196</v>
       </c>
@@ -3536,7 +4062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45">
+    <row r="9" spans="1:9" ht="45">
       <c r="B9" s="1" t="s">
         <v>197</v>
       </c>
@@ -3550,7 +4076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:9" ht="45">
       <c r="B10" s="1" t="s">
         <v>199</v>
       </c>
@@ -3558,7 +4084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45">
+    <row r="11" spans="1:9" ht="45">
       <c r="B11" s="1" t="s">
         <v>200</v>
       </c>
@@ -3572,7 +4098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45">
+    <row r="12" spans="1:9" ht="45">
       <c r="B12" s="1" t="s">
         <v>201</v>
       </c>
@@ -3580,7 +4106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:9" ht="45">
       <c r="B13" s="1" t="s">
         <v>202</v>
       </c>
@@ -3594,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="45">
+    <row r="14" spans="1:9" ht="45">
       <c r="B14" s="1" t="s">
         <v>203</v>
       </c>
@@ -3602,7 +4128,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="45">
+    <row r="15" spans="1:9" ht="45">
       <c r="B15" s="1" t="s">
         <v>204</v>
       </c>
@@ -3616,7 +4142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45">
+    <row r="16" spans="1:9" ht="45">
       <c r="B16" s="1" t="s">
         <v>205</v>
       </c>
@@ -3661,6 +4187,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>189</v>
       </c>
@@ -3983,7 +4512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -4000,10 +4529,2256 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45">
+      <c r="A43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3">
+        <v>42893</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45">
+      <c r="A44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="75">
+      <c r="B45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45">
+      <c r="A46" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="75">
+      <c r="B47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30">
+      <c r="A48" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="75">
+      <c r="B49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45">
+      <c r="B50" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45">
+      <c r="A52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45">
+      <c r="A53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="3">
+        <v>42893</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45">
+      <c r="A54" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="75">
+      <c r="B55" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45">
+      <c r="A56" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="75">
+      <c r="B57" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45">
+      <c r="A58" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="75">
+      <c r="B59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="45">
+      <c r="A60" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45">
+      <c r="A61" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="75">
+      <c r="B62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45">
+      <c r="B64" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30">
+      <c r="B66" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I148"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="B4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="B5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30">
+      <c r="B6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="B7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="B8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45">
+      <c r="B9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="B11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="B12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="B13" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="B14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="B17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45">
+      <c r="B18" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45">
+      <c r="B19" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45">
+      <c r="B20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45">
+      <c r="B21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45">
+      <c r="B22" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45">
+      <c r="B23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45">
+      <c r="B24" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45">
+      <c r="B25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="B26" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45">
+      <c r="B27" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45">
+      <c r="B28" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45">
+      <c r="B31" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60">
+      <c r="B32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45">
+      <c r="B33" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45">
+      <c r="B34" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60">
+      <c r="B35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
+      <c r="B36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45">
+      <c r="B37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60">
+      <c r="B38" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45">
+      <c r="B39" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="B42" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30">
+      <c r="B43" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="B44" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="B45" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="1">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="B46" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45">
+      <c r="B47" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30">
+      <c r="B48" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="1">
+        <v>123</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45">
+      <c r="B49" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60">
+      <c r="B50" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45">
+      <c r="B51" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45">
+      <c r="B52" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45">
+      <c r="B53" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="1">
+        <v>100</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="B54" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45">
+      <c r="A55" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="60">
+      <c r="B56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45">
+      <c r="B57" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45">
+      <c r="A58" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="60">
+      <c r="B59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45">
+      <c r="B60" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45">
+      <c r="A61" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="60">
+      <c r="B62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45">
+      <c r="B63" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45">
+      <c r="A64" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60">
+      <c r="B65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45">
+      <c r="B66" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30">
+      <c r="A67" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45">
+      <c r="A69" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="45">
+      <c r="B70" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30">
+      <c r="B71" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45">
+      <c r="B72" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45">
+      <c r="B73" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="45">
+      <c r="B74" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45">
+      <c r="B75" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45">
+      <c r="B76" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45">
+      <c r="B77" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45">
+      <c r="B78" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30">
+      <c r="A79" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30">
+      <c r="B80" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30">
+      <c r="B81" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30">
+      <c r="B82" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30">
+      <c r="B83" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30">
+      <c r="B84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="45">
+      <c r="A85" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60">
+      <c r="B86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30">
+      <c r="A87" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30">
+      <c r="B88" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45">
+      <c r="A90" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45">
+      <c r="A91" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45">
+      <c r="A92" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60">
+      <c r="B93" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60">
+      <c r="B94" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60">
+      <c r="B95" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="60">
+      <c r="B96" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="60">
+      <c r="B97" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="60">
+      <c r="B98" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="60">
+      <c r="B99" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="60">
+      <c r="B100" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="60">
+      <c r="B101" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="60">
+      <c r="B102" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="60">
+      <c r="B103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="60">
+      <c r="B104" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="60">
+      <c r="B105" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45">
+      <c r="A106" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30">
+      <c r="A107" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="60">
+      <c r="B108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30">
+      <c r="A109" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="60">
+      <c r="B110" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="1">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30">
+      <c r="A112" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30">
+      <c r="B113" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30">
+      <c r="B114" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45">
+      <c r="B115" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30">
+      <c r="B116" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45">
+      <c r="B117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30">
+      <c r="A118" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118" s="1">
+        <v>123</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="30">
+      <c r="A119" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="1">
+        <v>15</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30">
+      <c r="B120" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="60">
+      <c r="B121" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="45">
+      <c r="A122" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30">
+      <c r="A123" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30">
+      <c r="B124" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30">
+      <c r="B125" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="30">
+      <c r="B126" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="30">
+      <c r="B127" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="30">
+      <c r="B128" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30">
+      <c r="B129" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="B130" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G130" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30">
+      <c r="A132" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="30">
+      <c r="B133" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30">
+      <c r="B134" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30">
+      <c r="B135" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30">
+      <c r="B136" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="30">
+      <c r="B137" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30">
+      <c r="B138" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30">
+      <c r="B139" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30">
+      <c r="B140" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30">
+      <c r="B141" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="30">
+      <c r="B142" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="30">
+      <c r="B143" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="45">
+      <c r="A144" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G144" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="45">
+      <c r="B145" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="45">
+      <c r="B146" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="45">
+      <c r="B147" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G147" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1</v>
+      </c>
+      <c r="G148" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/resources/Clinician02.xlsx
+++ b/resources/Clinician02.xlsx
@@ -4937,7 +4937,7 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
